--- a/Data_science_outputs/800pop/Monthly_consumption/Montlhy_consumption_2.xlsx
+++ b/Data_science_outputs/800pop/Monthly_consumption/Montlhy_consumption_2.xlsx
@@ -475,13 +475,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10481.33163398335</v>
+        <v>6337.074482800014</v>
       </c>
       <c r="C2" t="n">
         <v>1016.91221996667</v>
       </c>
       <c r="D2" t="n">
-        <v>4569.78187205</v>
+        <v>427.05887645</v>
       </c>
       <c r="E2" t="n">
         <v>1381.5483666</v>
@@ -498,13 +498,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9794.179337950012</v>
+        <v>5915.804813150013</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4296.9158493</v>
+        <v>397.1648567</v>
       </c>
       <c r="E3" t="n">
         <v>1288.572523166667</v>
@@ -521,13 +521,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10497.96351056668</v>
+        <v>6308.487047833346</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4570.063841583334</v>
+        <v>429.5158940333333</v>
       </c>
       <c r="E4" t="n">
         <v>1376.7807212</v>
@@ -544,13 +544,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10148.44228330001</v>
+        <v>6109.31012581668</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>4427.9938584</v>
+        <v>423.3215779</v>
       </c>
       <c r="E5" t="n">
         <v>1337.76009385</v>
@@ -567,13 +567,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10478.93145815001</v>
+        <v>6333.656942483347</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>4567.017512266667</v>
+        <v>427.5835390833333</v>
       </c>
       <c r="E6" t="n">
         <v>1367.522908866667</v>
@@ -590,13 +590,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>10140.12930323335</v>
+        <v>6112.18355251668</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>4447.212617283333</v>
+        <v>405.6004834166666</v>
       </c>
       <c r="E7" t="n">
         <v>1340.991212666667</v>
@@ -613,13 +613,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>10494.13216185001</v>
+        <v>6302.481822583347</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>4578.70722</v>
+        <v>419.755824</v>
       </c>
       <c r="E8" t="n">
         <v>1363.20929395</v>
@@ -636,13 +636,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>10485.08250290001</v>
+        <v>6318.33731371668</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>4580.716582766667</v>
+        <v>444.3989366666667</v>
       </c>
       <c r="E9" t="n">
         <v>1375.007581683333</v>
@@ -659,13 +659,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>10132.09584441668</v>
+        <v>6114.464430750013</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>4431.959862416667</v>
+        <v>415.7302043</v>
       </c>
       <c r="E10" t="n">
         <v>1321.568446416667</v>
@@ -682,13 +682,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>10472.10480060001</v>
+        <v>6338.98541771668</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>4575.574218566667</v>
+        <v>421.5538573666667</v>
       </c>
       <c r="E11" t="n">
         <v>1391.61962175</v>
@@ -705,13 +705,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>10112.00599196668</v>
+        <v>6116.052410050012</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>4443.598580016666</v>
+        <v>416.1368788166666</v>
       </c>
       <c r="E12" t="n">
         <v>1343.722507583333</v>
@@ -728,13 +728,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>10143.03975250001</v>
+        <v>6128.743814600013</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>4430.711575583333</v>
+        <v>418.08523845</v>
       </c>
       <c r="E13" t="n">
         <v>1331.969743</v>
